--- a/キャラ設定他.xlsx
+++ b/キャラ設定他.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24426"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="783" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="783" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="機能要件" sheetId="11" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="241">
   <si>
     <t>静止画撮影</t>
     <rPh sb="0" eb="5">
@@ -2336,6 +2336,65 @@
     <t>仮想ハンドメモ</t>
     <rPh sb="0" eb="2">
       <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MeはMepinchシーンを参照ください</t>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コップ表面</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パサパサトリガー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pasapasa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>capWaterSurface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケーキ破片</t>
+    <rPh sb="3" eb="5">
+      <t>ハヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cakePiece</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MeLayer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SonLayer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Me基本レイヤー</t>
+    <rPh sb="2" eb="4">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3キャラ基本レイヤー</t>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2655,7 +2714,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2809,8 +2868,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2975,6 +3044,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3015,7 +3093,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="163">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -3092,6 +3170,11 @@
     <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -3169,6 +3252,11 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -6025,10 +6113,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -6043,315 +6131,271 @@
       <c r="A1" s="46" t="s">
         <v>199</v>
       </c>
+      <c r="B1" s="46" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="57"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="57"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+        <v>123</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C15" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-    </row>
-    <row r="12" spans="1:8" ht="40" customHeight="1">
-      <c r="B12" s="49" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+    </row>
+    <row r="16" spans="1:8" ht="40" customHeight="1">
+      <c r="B16" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C16" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="D16" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-    </row>
-    <row r="13" spans="1:8" ht="76" customHeight="1">
-      <c r="B13" s="49" t="s">
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" spans="2:8" ht="76" customHeight="1">
+      <c r="B17" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C17" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="46" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="46" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+    <row r="20" spans="2:8">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D20" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E20" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F20" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G20" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H20" s="49" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22" s="49" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F22" s="49" t="s">
         <v>133</v>
@@ -6360,591 +6404,738 @@
         <v>133</v>
       </c>
       <c r="H22" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="39" customHeight="1">
-      <c r="B24" s="17" t="s">
+      <c r="F23" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="39" customHeight="1">
+      <c r="B28" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D28" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
-    </row>
-    <row r="25" spans="2:8" ht="37" customHeight="1">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17" t="s">
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+    </row>
+    <row r="29" spans="2:8" ht="37" customHeight="1">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D29" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="2:8" ht="43" customHeight="1">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="63"/>
-    </row>
-    <row r="27" spans="2:8" ht="61" customHeight="1">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="2:8" ht="39" customHeight="1">
-      <c r="B29" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" spans="2:8" ht="40" customHeight="1">
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
+    </row>
+    <row r="30" spans="2:8" ht="43" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="63"/>
-    </row>
-    <row r="31" spans="2:8" ht="40" customHeight="1">
+        <v>181</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
+    </row>
+    <row r="31" spans="2:8" ht="61" customHeight="1">
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="63"/>
+        <v>132</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="17"/>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="2:8" ht="39" customHeight="1">
+      <c r="B33" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="66"/>
+    </row>
+    <row r="34" spans="2:8" ht="40" customHeight="1">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="66"/>
+    </row>
+    <row r="35" spans="2:8" ht="40" customHeight="1">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="66"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D36" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="49" t="s">
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C38" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="57" t="s">
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C39" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="57"/>
-      <c r="C36" s="48" t="s">
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="60"/>
+      <c r="C40" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="57"/>
-      <c r="C37" s="48" t="s">
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="60"/>
+      <c r="C41" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="57"/>
-      <c r="C38" s="48" t="s">
+      <c r="D41" s="59"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="60"/>
+      <c r="C42" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="57"/>
-      <c r="C39" s="48" t="s">
+      <c r="D42" s="59"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="60"/>
+      <c r="C43" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="57"/>
-      <c r="C40" s="48" t="s">
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="60"/>
+      <c r="C44" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="49" t="s">
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C45" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="58" t="s">
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="D46" s="70"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C47" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D47" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="59"/>
-      <c r="C44" s="49" t="s">
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="62"/>
+      <c r="C48" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="56" t="s">
+      <c r="D48" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="59"/>
-      <c r="C45" s="57" t="s">
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="62"/>
+      <c r="C49" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D49" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E49" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="63"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="59"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57" t="s">
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="66"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="62"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E50" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="59"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57" t="s">
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="62"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="59"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57" t="s">
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="62"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" s="59"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57" t="s">
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="62"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" s="59"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57" t="s">
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="62"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="B51" s="59"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57" t="s">
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="62"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" s="59"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57" t="s">
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="62"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" s="59"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57" t="s">
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="62"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" s="59"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57" t="s">
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="62"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="57" t="s">
+      <c r="E58" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" s="59"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57" t="s">
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="62"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" s="59"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57" t="s">
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="62"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" s="59"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57" t="s">
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="62"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" s="59"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57" t="s">
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="62"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" s="59"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57" t="s">
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="62"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" s="59"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57" t="s">
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="62"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="B61" s="60"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57" t="s">
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="63"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="46" t="s">
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B67" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C67" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="54" t="s">
+      <c r="D67" s="59"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C68" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="54" t="s">
+      <c r="D68" s="59"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C69" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="46" t="s">
+      <c r="D69" s="59"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="59"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="60"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" s="59"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="B72" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" s="59"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="58"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C75" s="46" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="46" t="s">
+    <row r="76" spans="1:8">
+      <c r="B76" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C76" s="46" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="46" t="s">
+    <row r="77" spans="1:8">
+      <c r="B77" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C77" s="55" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="46" t="s">
+    <row r="78" spans="1:8">
+      <c r="B78" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="46" t="s">
+      <c r="C78" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="D70" s="46" t="s">
+      <c r="D78" s="46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
-      <c r="C71" s="46" t="s">
+    <row r="79" spans="1:8">
+      <c r="C79" s="46" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D32:H32"/>
+  <mergeCells count="64">
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D68:H68"/>
     <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
     <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E51:H51"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="E58:H58"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D39:H39"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="B39:B44"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C11:H11"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D28:H28"/>
     <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="C49:C65"/>
+    <mergeCell ref="B47:B65"/>
+    <mergeCell ref="E49:H49"/>
     <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="C45:C61"/>
-    <mergeCell ref="B43:B61"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="E63:H63"/>
+    <mergeCell ref="E64:H64"/>
+    <mergeCell ref="E65:H65"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="E56:H56"/>
     <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E61:H61"/>
-    <mergeCell ref="D46:D53"/>
-    <mergeCell ref="D54:D61"/>
-    <mergeCell ref="E51:H51"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="E53:H53"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6961,7 +7152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
